--- a/biology/Zoologie/Goujon_d'Ukraine/Goujon_d'Ukraine.xlsx
+++ b/biology/Zoologie/Goujon_d'Ukraine/Goujon_d'Ukraine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goujon_d%27Ukraine</t>
+          <t>Goujon_d'Ukraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Romanogobio belingi
 Le Goujon d'Ukraine (Romanogobio belingi) est une espèce de poissons actinoptérygiens de la famille des Gobionidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Goujon_d%27Ukraine</t>
+          <t>Goujon_d'Ukraine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson peut mesurer 11,5 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson peut mesurer 11,5 cm de long.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Goujon_d%27Ukraine</t>
+          <t>Goujon_d'Ukraine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson d'eau douce est endémique de l'Europe centrale et de l'Europe de l'Est. Il est présent en Allemagne, en Belgique, en Biélorussie, en France, en Moldavie, aux Pays-Bas, en Pologne, en Russie, en Slovaquie, en Tchéquie et en Ukraine[2].
-Avec l'amélioration de la qualité des eaux du Rhin, il a pu remonter l'amont de celui-ci et coloniser le nord de la plaine d'Alsace, lui laissant ainsi la possibilité de s'étendre dans l'Est de la France[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson d'eau douce est endémique de l'Europe centrale et de l'Europe de l'Est. Il est présent en Allemagne, en Belgique, en Biélorussie, en France, en Moldavie, aux Pays-Bas, en Pologne, en Russie, en Slovaquie, en Tchéquie et en Ukraine.
+Avec l'amélioration de la qualité des eaux du Rhin, il a pu remonter l'amont de celui-ci et coloniser le nord de la plaine d'Alsace, lui laissant ainsi la possibilité de s'étendre dans l'Est de la France.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Goujon_d%27Ukraine</t>
+          <t>Goujon_d'Ukraine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Le Goujon d'Ukraine et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Goujon d'Ukraine est considéré comme une « espèce de préoccupation mineure » (LC) par la liste rouge de l'UICN[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Goujon d'Ukraine est considéré comme une « espèce de préoccupation mineure » (LC) par la liste rouge de l'UICN.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Goujon_d%27Ukraine</t>
+          <t>Goujon_d'Ukraine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,14 +624,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 1934 par le zoologiste ukrainien Efim Petrovitch Slastenenko (uk). Avant d'être classée dans le genre Romanogobio, elle a été initialement placée dans le genre Gobio, sous le protonyme Gobio belingi Slastenenko, 1934[4].
-Le nom vernaculaire attesté en français est « Goujon d'Ukraine »[3],[5].
-Étymologie
-Son épithète spécifique, belingi, lui a été donnée en l'honneur de Demeter E. Beling, directeur de la Station biologique du Dniepr, autorité en matière de poissons ukrainiens fréquemment citée dans les articles de Slastenenko[6].
-Publication originale
-Efim Petrovitch Slastenenko, « Les goujons de l'Ukraine », Bulletin de la Société zoologique de France, Paris, Société zoologique de France, vol. 59,‎ 1934, p. 346-363 (lire en ligne) (protologue).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1934 par le zoologiste ukrainien Efim Petrovitch Slastenenko (uk). Avant d'être classée dans le genre Romanogobio, elle a été initialement placée dans le genre Gobio, sous le protonyme Gobio belingi Slastenenko, 1934.
+Le nom vernaculaire attesté en français est « Goujon d'Ukraine »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Goujon_d'Ukraine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goujon_d%27Ukraine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, belingi, lui a été donnée en l'honneur de Demeter E. Beling, directeur de la Station biologique du Dniepr, autorité en matière de poissons ukrainiens fréquemment citée dans les articles de Slastenenko.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Goujon_d'Ukraine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goujon_d%27Ukraine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Efim Petrovitch Slastenenko, « Les goujons de l'Ukraine », Bulletin de la Société zoologique de France, Paris, Société zoologique de France, vol. 59,‎ 1934, p. 346-363 (lire en ligne) (protologue).</t>
         </is>
       </c>
     </row>
